--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINTIC\PROGRAMACION\CICLO_3\Proyecto_EOTIA_CAKE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA165543-E4FD-4CDD-A65A-00F112C91DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792D967-6698-4412-916A-EE7CC90D5D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{F326DBBD-E1B0-439F-99C9-BA07FE58C898}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>RESULTADO DE LA VALIDACION</t>
   </si>
@@ -181,18 +181,12 @@
     <t>Home page con boton creado</t>
   </si>
   <si>
-    <t>Dar click en boton de registro</t>
-  </si>
-  <si>
     <t>Apertura de formulario de registro</t>
   </si>
   <si>
     <t>Visualizar Formulario de registro</t>
   </si>
   <si>
-    <t>Visualizar el boton de registro</t>
-  </si>
-  <si>
     <t>Haber utilizado boton de registro</t>
   </si>
   <si>
@@ -236,6 +230,27 @@
   </si>
   <si>
     <t>Visualización de los datos de contacto</t>
+  </si>
+  <si>
+    <t>Dar click en boton de contacto</t>
+  </si>
+  <si>
+    <t>Visualizar el botón de contacto</t>
+  </si>
+  <si>
+    <t>Catalago</t>
+  </si>
+  <si>
+    <t>Visualizar el catalogo de productos</t>
+  </si>
+  <si>
+    <t>Ingresar al Botòn Nuestros Productos</t>
+  </si>
+  <si>
+    <t>Dar click en boton de Nuestros Productos</t>
+  </si>
+  <si>
+    <t>Visualizar los productos disponibles, con su descripciòn y precio</t>
   </si>
 </sst>
 </file>
@@ -479,6 +494,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,33 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,10 +1746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B757E-F7EE-42F7-B663-240FB00CB1D5}">
   <sheetPr codeName="CasosDePrueba1"/>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="V39" sqref="V39:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3063,1165 +3078,1378 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="44" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26">
+        <v>44815</v>
+      </c>
       <c r="N9" s="20"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="20"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="23" t="str">
-        <f>IF(COUNTIF(W9:W14,"Validar")&gt;1,"Validar",IF(COUNTIF(W9:W14,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W9:W14,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W9:W14,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
+      <c r="S9" s="23"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="21"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="45"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="30"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="21"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="45"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="30"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="21"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="45"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="30"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="45"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="30"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="22"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="46"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="31"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="25"/>
+      <c r="X14" s="34"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="32" t="s">
+      <c r="E15" s="38">
+        <v>2</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="44" t="s">
         <v>38</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26">
+        <v>44815</v>
+      </c>
       <c r="N15" s="20"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="23" t="str">
-        <f>IF(COUNTIF(W15:W20,"Validar")&gt;1,"Validar",IF(COUNTIF(W15:W20,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W15:W20,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W15:W20,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
+      <c r="S15" s="23"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="45"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="30"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="21"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="45"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="30"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="45"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="30"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="33"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="21"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="45"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="30"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="33"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="46"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="25"/>
+      <c r="X20" s="34"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="29">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="38">
+        <v>3</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="H21" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="44" t="s">
         <v>42</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26">
+        <v>44815</v>
+      </c>
       <c r="N21" s="20"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="23" t="str">
-        <f>IF(COUNTIF(W21:W26,"Validar")&gt;1,"Validar",IF(COUNTIF(W21:W26,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W21:W26,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W21:W26,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
+      <c r="S21" s="23"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="21"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="45"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="30"/>
       <c r="W22" s="21"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="33"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="45"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="30"/>
       <c r="W23" s="21"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="33"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="21"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="45"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="30"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="33"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="45"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="30"/>
       <c r="W25" s="21"/>
-      <c r="X25" s="24"/>
+      <c r="X25" s="33"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
       <c r="R26" s="22"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="46"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="22"/>
-      <c r="X26" s="25"/>
+      <c r="X26" s="34"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>48</v>
+      <c r="D27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="38">
+        <v>4</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26">
+        <v>44815</v>
+      </c>
       <c r="N27" s="20"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="23" t="str">
-        <f>IF(COUNTIF(W27:W32,"Validar")&gt;1,"Validar",IF(COUNTIF(W27:W32,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W27:W32,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W27:W32,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
+      <c r="S27" s="23"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X27" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="21"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="45"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="30"/>
       <c r="W28" s="21"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="33"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
       <c r="R29" s="21"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="45"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="30"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="33"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="45"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="30"/>
       <c r="W30" s="21"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="33"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="45"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="30"/>
       <c r="W31" s="21"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="33"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
       <c r="N32" s="22"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="46"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="31"/>
       <c r="W32" s="22"/>
-      <c r="X32" s="25"/>
+      <c r="X32" s="34"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="29">
-        <v>1</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
+      <c r="E33" s="38">
+        <v>5</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="20"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="44"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="29"/>
       <c r="W33" s="20"/>
-      <c r="X33" s="23" t="str">
-        <f>IF(COUNTIF(W33:W38,"Validar")&gt;1,"Validar",IF(COUNTIF(W33:W38,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W33:W38,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W33:W38,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
-      </c>
+      <c r="X33" s="32"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="21"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="45"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="30"/>
       <c r="W34" s="21"/>
-      <c r="X34" s="24"/>
+      <c r="X34" s="33"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
       <c r="N35" s="21"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="45"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="30"/>
       <c r="W35" s="21"/>
-      <c r="X35" s="24"/>
+      <c r="X35" s="33"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
       <c r="N36" s="21"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
       <c r="R36" s="21"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="45"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="30"/>
       <c r="W36" s="21"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="33"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="21"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="45"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="30"/>
       <c r="W37" s="21"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="33"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="22"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
       <c r="N38" s="22"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="46"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="31"/>
       <c r="W38" s="22"/>
-      <c r="X38" s="25"/>
+      <c r="X38" s="34"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>44460</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="29">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
+      <c r="D39" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="38">
+        <v>6</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="20"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="44"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="29"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="23" t="str">
-        <f>IF(COUNTIF(W39:W44,"Validar")&gt;1,"Validar",IF(COUNTIF(W39:W44,"PENDIENTE")&gt;1,"PENDIENTE",IF(COUNTIF(W39:W44,"OK")&gt;1,"COMPLETO",IF(COUNTIF(W39:W44,"NA")&gt;1,"NOAPLICA","REVISAR"))))</f>
-        <v>REVISAR</v>
-      </c>
+      <c r="X39" s="32"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
       <c r="N40" s="21"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
       <c r="R40" s="21"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="45"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="30"/>
       <c r="W40" s="21"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="33"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="21"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="21"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
       <c r="R41" s="21"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="45"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="30"/>
       <c r="W41" s="21"/>
-      <c r="X41" s="24"/>
+      <c r="X41" s="33"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
       <c r="N42" s="21"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
       <c r="R42" s="21"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="45"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="30"/>
       <c r="W42" s="21"/>
-      <c r="X42" s="24"/>
+      <c r="X42" s="33"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="21"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="21"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
       <c r="R43" s="21"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="45"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="30"/>
       <c r="W43" s="21"/>
-      <c r="X43" s="24"/>
+      <c r="X43" s="33"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
       <c r="N44" s="22"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="46"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="31"/>
       <c r="W44" s="22"/>
-      <c r="X44" s="25"/>
+      <c r="X44" s="34"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <v>44809</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="38">
+        <v>7</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="151">
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S38"/>
-    <mergeCell ref="T33:T38"/>
-    <mergeCell ref="U33:U38"/>
-    <mergeCell ref="V33:V38"/>
-    <mergeCell ref="W39:W44"/>
-    <mergeCell ref="X39:X44"/>
-    <mergeCell ref="R21:R26"/>
+  <mergeCells count="175">
+    <mergeCell ref="X27:X32"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="M27:M32"/>
+    <mergeCell ref="N27:N32"/>
+    <mergeCell ref="O27:O32"/>
+    <mergeCell ref="P27:P32"/>
+    <mergeCell ref="Q27:Q32"/>
+    <mergeCell ref="R27:R32"/>
     <mergeCell ref="S27:S32"/>
     <mergeCell ref="T27:T32"/>
-    <mergeCell ref="U27:U32"/>
-    <mergeCell ref="V27:V32"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="X27:X32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="K45:K50"/>
+    <mergeCell ref="L45:L50"/>
+    <mergeCell ref="M45:M50"/>
+    <mergeCell ref="N45:N50"/>
+    <mergeCell ref="O45:O50"/>
+    <mergeCell ref="P45:P50"/>
+    <mergeCell ref="Q45:Q50"/>
+    <mergeCell ref="R45:R50"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="I45:I50"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
@@ -4231,38 +4459,30 @@
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="H33:H38"/>
     <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="M33:M38"/>
-    <mergeCell ref="N33:N38"/>
-    <mergeCell ref="O33:O38"/>
-    <mergeCell ref="P33:P38"/>
-    <mergeCell ref="Q33:Q38"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="X15:X20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="J1:X6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="N9:N14"/>
+    <mergeCell ref="O9:O14"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="Q9:Q14"/>
+    <mergeCell ref="R9:R14"/>
+    <mergeCell ref="S9:S14"/>
+    <mergeCell ref="T9:T14"/>
+    <mergeCell ref="U9:U14"/>
+    <mergeCell ref="V9:V14"/>
+    <mergeCell ref="E9:E14"/>
     <mergeCell ref="F9:F14"/>
     <mergeCell ref="X9:X14"/>
     <mergeCell ref="A9:A14"/>
@@ -4287,56 +4507,54 @@
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="G15:G20"/>
-    <mergeCell ref="A1:I6"/>
-    <mergeCell ref="J1:X6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="L9:L14"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="N9:N14"/>
-    <mergeCell ref="O9:O14"/>
-    <mergeCell ref="P9:P14"/>
-    <mergeCell ref="Q9:Q14"/>
-    <mergeCell ref="R9:R14"/>
-    <mergeCell ref="S9:S14"/>
-    <mergeCell ref="T9:T14"/>
-    <mergeCell ref="U9:U14"/>
-    <mergeCell ref="V9:V14"/>
-    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="X15:X20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
     <mergeCell ref="S21:S26"/>
     <mergeCell ref="T21:T26"/>
     <mergeCell ref="U21:U26"/>
     <mergeCell ref="V21:V26"/>
     <mergeCell ref="W21:W26"/>
     <mergeCell ref="X21:X26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="K39:K44"/>
+    <mergeCell ref="L39:L44"/>
+    <mergeCell ref="M39:M44"/>
+    <mergeCell ref="N39:N44"/>
+    <mergeCell ref="O39:O44"/>
+    <mergeCell ref="P39:P44"/>
+    <mergeCell ref="Q39:Q44"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="M33:M38"/>
+    <mergeCell ref="N33:N38"/>
+    <mergeCell ref="O33:O38"/>
+    <mergeCell ref="P33:P38"/>
+    <mergeCell ref="Q33:Q38"/>
     <mergeCell ref="J27:J32"/>
     <mergeCell ref="K27:K32"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="M27:M32"/>
-    <mergeCell ref="N27:N32"/>
-    <mergeCell ref="O27:O32"/>
-    <mergeCell ref="P27:P32"/>
-    <mergeCell ref="Q27:Q32"/>
-    <mergeCell ref="R27:R32"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="X33:X38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
@@ -4346,19 +4564,30 @@
     <mergeCell ref="G39:G44"/>
     <mergeCell ref="H39:H44"/>
     <mergeCell ref="I39:I44"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="K39:K44"/>
-    <mergeCell ref="L39:L44"/>
-    <mergeCell ref="M39:M44"/>
-    <mergeCell ref="N39:N44"/>
-    <mergeCell ref="O39:O44"/>
-    <mergeCell ref="P39:P44"/>
-    <mergeCell ref="Q39:Q44"/>
     <mergeCell ref="R39:R44"/>
     <mergeCell ref="S39:S44"/>
     <mergeCell ref="T39:T44"/>
     <mergeCell ref="U39:U44"/>
     <mergeCell ref="V39:V44"/>
+    <mergeCell ref="W45:W50"/>
+    <mergeCell ref="X45:X50"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="S33:S38"/>
+    <mergeCell ref="T33:T38"/>
+    <mergeCell ref="U33:U38"/>
+    <mergeCell ref="V33:V38"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="X33:X38"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="W39:W44"/>
+    <mergeCell ref="X39:X44"/>
+    <mergeCell ref="S45:S50"/>
+    <mergeCell ref="T45:T50"/>
+    <mergeCell ref="U45:U50"/>
+    <mergeCell ref="V45:V50"/>
+    <mergeCell ref="U27:U32"/>
+    <mergeCell ref="V27:V32"/>
+    <mergeCell ref="W27:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINTIC\PROGRAMACION\CICLO_3\Proyecto_EOTIA_CAKE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792D967-6698-4412-916A-EE7CC90D5D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C9DBDB-3E3E-49C2-BEA9-784038F764CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{F326DBBD-E1B0-439F-99C9-BA07FE58C898}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>RESULTADO DE LA VALIDACION</t>
   </si>
@@ -251,6 +251,54 @@
   </si>
   <si>
     <t>Visualizar los productos disponibles, con su descripciòn y precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como cliente quiero poder ver el catalogo para realizar mis compras </t>
+  </si>
+  <si>
+    <t>Catalago de productos por secciones</t>
+  </si>
+  <si>
+    <t>Visualizar las diferentes secciones de productos (especiales,cupcakes,tipicos)</t>
+  </si>
+  <si>
+    <t>revisar que esten las diferentes secciones en el catalogo</t>
+  </si>
+  <si>
+    <t>Visualización de las tres secciones de producto</t>
+  </si>
+  <si>
+    <t>yo como cliente quiero poder reunir los productos en un carrito de compras para realizar el pago total.</t>
+  </si>
+  <si>
+    <t>Carrito de compras</t>
+  </si>
+  <si>
+    <t>seleccionar varios productos</t>
+  </si>
+  <si>
+    <t>Ingresar al catalogo</t>
+  </si>
+  <si>
+    <t>revisar que los productos seleccionados se almacenen en el carrito</t>
+  </si>
+  <si>
+    <t>Visualización del carrito de compras</t>
+  </si>
+  <si>
+    <t>Visualizar la conexión con Instagram y WhatsApp</t>
+  </si>
+  <si>
+    <t>Ir al final de la pagina</t>
+  </si>
+  <si>
+    <t>revisar que estén los botonos de enlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización de las paginas correspondientes a cada botón </t>
+  </si>
+  <si>
+    <t>Visualizar los diferentes productos que escogí para pagar en un carrito de compras</t>
   </si>
 </sst>
 </file>
@@ -486,6 +534,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,33 +568,6 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +619,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,10 +1794,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B757E-F7EE-42F7-B663-240FB00CB1D5}">
   <sheetPr codeName="CasosDePrueba1"/>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39:V44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1767,15 +1815,15 @@
     <col min="11" max="11" width="14.42578125" style="16" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="17" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" style="17" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="17" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" style="15" customWidth="1"/>
     <col min="24" max="24" width="26.7109375" style="15" customWidth="1"/>
     <col min="25" max="255" width="11.42578125" style="3"/>
@@ -2790,214 +2838,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="49" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
       <c r="V7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="49" t="s">
+      <c r="W7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="49"/>
+      <c r="X7" s="46"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
@@ -3078,1387 +3126,2108 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="32">
         <v>44809</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>1</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26">
+      <c r="K9" s="29"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23">
         <v>44815</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="20" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="21"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="33"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="21"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="21"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="33"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="21"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="34"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="22"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>44809</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <v>2</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26">
+      <c r="K15" s="29"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23">
         <v>44815</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="20" t="s">
+      <c r="N15" s="26"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="32" t="s">
+      <c r="X15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="21"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="33"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="21"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="21"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="21"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="34"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="22"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="32">
         <v>44809</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="35">
         <v>3</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26">
+      <c r="K21" s="29"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23">
         <v>44815</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="20" t="s">
+      <c r="N21" s="26"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X21" s="32" t="s">
+      <c r="X21" s="20" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="21"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="33"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="21"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="33"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="21"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="21"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="34"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="22"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="32">
         <v>44809</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="35">
         <v>4</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26">
+      <c r="K27" s="29"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23">
         <v>44815</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="20" t="s">
+      <c r="N27" s="26"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X27" s="32" t="s">
+      <c r="X27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="33"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="21"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="21"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="33"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="21"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="33"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="21"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="34"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="22"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="32">
         <v>44809</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="35">
         <v>5</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="32"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="20"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="33"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="21"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="33"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="21"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="33"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="21"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="33"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="21"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="34"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="22"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="32">
         <v>44809</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="35">
         <v>6</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="32"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="20"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="33"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="21"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="33"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="21"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="33"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="21"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="33"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="21"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="34"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="22"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
+      <c r="A45" s="32">
         <v>44809</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="35">
         <v>7</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="32"/>
+      <c r="J45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23">
+        <v>44822</v>
+      </c>
+      <c r="N45" s="26"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X45" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="33"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="21"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="33"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="21"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="33"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="21"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="33"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="21"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="34"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="22"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
+    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>44809</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="35">
+        <v>8</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23">
+        <v>44822</v>
+      </c>
+      <c r="N51" s="26"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+    </row>
+    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>44809</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="35">
+        <v>9</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23">
+        <v>44822</v>
+      </c>
+      <c r="N57" s="26"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X57" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>44809</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="35">
+        <v>10</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23">
+        <v>44822</v>
+      </c>
+      <c r="N63" s="26"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X63" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+    </row>
+    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+    </row>
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+    </row>
+    <row r="68" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="X27:X32"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="M27:M32"/>
-    <mergeCell ref="N27:N32"/>
-    <mergeCell ref="O27:O32"/>
-    <mergeCell ref="P27:P32"/>
-    <mergeCell ref="Q27:Q32"/>
-    <mergeCell ref="R27:R32"/>
-    <mergeCell ref="S27:S32"/>
-    <mergeCell ref="T27:T32"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="K45:K50"/>
-    <mergeCell ref="L45:L50"/>
-    <mergeCell ref="M45:M50"/>
-    <mergeCell ref="N45:N50"/>
-    <mergeCell ref="O45:O50"/>
-    <mergeCell ref="P45:P50"/>
-    <mergeCell ref="Q45:Q50"/>
-    <mergeCell ref="R45:R50"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
+  <mergeCells count="247">
+    <mergeCell ref="S63:S68"/>
+    <mergeCell ref="T63:T68"/>
+    <mergeCell ref="U63:U68"/>
+    <mergeCell ref="V63:V68"/>
+    <mergeCell ref="W63:W68"/>
+    <mergeCell ref="X63:X68"/>
+    <mergeCell ref="S57:S62"/>
+    <mergeCell ref="T57:T62"/>
+    <mergeCell ref="U57:U62"/>
+    <mergeCell ref="V57:V62"/>
+    <mergeCell ref="W57:W62"/>
+    <mergeCell ref="X57:X62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="L63:L68"/>
+    <mergeCell ref="M63:M68"/>
+    <mergeCell ref="N63:N68"/>
+    <mergeCell ref="O63:O68"/>
+    <mergeCell ref="P63:P68"/>
+    <mergeCell ref="Q63:Q68"/>
+    <mergeCell ref="R63:R68"/>
+    <mergeCell ref="S51:S56"/>
+    <mergeCell ref="T51:T56"/>
+    <mergeCell ref="U51:U56"/>
+    <mergeCell ref="V51:V56"/>
+    <mergeCell ref="W51:W56"/>
+    <mergeCell ref="X51:X56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="M57:M62"/>
+    <mergeCell ref="N57:N62"/>
+    <mergeCell ref="O57:O62"/>
+    <mergeCell ref="P57:P62"/>
+    <mergeCell ref="Q57:Q62"/>
+    <mergeCell ref="R57:R62"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="L51:L56"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="N51:N56"/>
+    <mergeCell ref="O51:O56"/>
+    <mergeCell ref="P51:P56"/>
+    <mergeCell ref="Q51:Q56"/>
+    <mergeCell ref="R51:R56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="R39:R44"/>
+    <mergeCell ref="S39:S44"/>
+    <mergeCell ref="T39:T44"/>
+    <mergeCell ref="U39:U44"/>
+    <mergeCell ref="V39:V44"/>
+    <mergeCell ref="W45:W50"/>
+    <mergeCell ref="X45:X50"/>
+    <mergeCell ref="R21:R26"/>
+    <mergeCell ref="S33:S38"/>
+    <mergeCell ref="T33:T38"/>
+    <mergeCell ref="U33:U38"/>
+    <mergeCell ref="V33:V38"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="X33:X38"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="W39:W44"/>
+    <mergeCell ref="X39:X44"/>
+    <mergeCell ref="S45:S50"/>
+    <mergeCell ref="T45:T50"/>
+    <mergeCell ref="U45:U50"/>
+    <mergeCell ref="V45:V50"/>
+    <mergeCell ref="U27:U32"/>
+    <mergeCell ref="V27:V32"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="I39:I44"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="K39:K44"/>
+    <mergeCell ref="L39:L44"/>
+    <mergeCell ref="M39:M44"/>
+    <mergeCell ref="N39:N44"/>
+    <mergeCell ref="O39:O44"/>
+    <mergeCell ref="P39:P44"/>
+    <mergeCell ref="Q39:Q44"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="M33:M38"/>
+    <mergeCell ref="N33:N38"/>
+    <mergeCell ref="O33:O38"/>
+    <mergeCell ref="P33:P38"/>
+    <mergeCell ref="Q33:Q38"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="X15:X20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="K21:K26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M26"/>
+    <mergeCell ref="N21:N26"/>
+    <mergeCell ref="O21:O26"/>
+    <mergeCell ref="P21:P26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="T21:T26"/>
+    <mergeCell ref="U21:U26"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="X21:X26"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="X9:X14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="W9:W14"/>
+    <mergeCell ref="N15:N20"/>
+    <mergeCell ref="O15:O20"/>
+    <mergeCell ref="P15:P20"/>
+    <mergeCell ref="Q15:Q20"/>
+    <mergeCell ref="R15:R20"/>
+    <mergeCell ref="S15:S20"/>
+    <mergeCell ref="T15:T20"/>
+    <mergeCell ref="U15:U20"/>
+    <mergeCell ref="V15:V20"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G15:G20"/>
     <mergeCell ref="A1:I6"/>
     <mergeCell ref="J1:X6"/>
     <mergeCell ref="A7:I7"/>
@@ -4483,111 +5252,52 @@
     <mergeCell ref="U9:U14"/>
     <mergeCell ref="V9:V14"/>
     <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="X9:X14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="W9:W14"/>
-    <mergeCell ref="N15:N20"/>
-    <mergeCell ref="O15:O20"/>
-    <mergeCell ref="P15:P20"/>
-    <mergeCell ref="Q15:Q20"/>
-    <mergeCell ref="R15:R20"/>
-    <mergeCell ref="S15:S20"/>
-    <mergeCell ref="T15:T20"/>
-    <mergeCell ref="U15:U20"/>
-    <mergeCell ref="V15:V20"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="X15:X20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="K21:K26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M26"/>
-    <mergeCell ref="N21:N26"/>
-    <mergeCell ref="O21:O26"/>
-    <mergeCell ref="P21:P26"/>
-    <mergeCell ref="Q21:Q26"/>
-    <mergeCell ref="S21:S26"/>
-    <mergeCell ref="T21:T26"/>
-    <mergeCell ref="U21:U26"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="X21:X26"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="K39:K44"/>
-    <mergeCell ref="L39:L44"/>
-    <mergeCell ref="M39:M44"/>
-    <mergeCell ref="N39:N44"/>
-    <mergeCell ref="O39:O44"/>
-    <mergeCell ref="P39:P44"/>
-    <mergeCell ref="Q39:Q44"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="K15:K20"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="M15:M20"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="M33:M38"/>
-    <mergeCell ref="N33:N38"/>
-    <mergeCell ref="O33:O38"/>
-    <mergeCell ref="P33:P38"/>
-    <mergeCell ref="Q33:Q38"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="K27:K32"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="I39:I44"/>
-    <mergeCell ref="R39:R44"/>
-    <mergeCell ref="S39:S44"/>
-    <mergeCell ref="T39:T44"/>
-    <mergeCell ref="U39:U44"/>
-    <mergeCell ref="V39:V44"/>
-    <mergeCell ref="W45:W50"/>
-    <mergeCell ref="X45:X50"/>
-    <mergeCell ref="R21:R26"/>
-    <mergeCell ref="S33:S38"/>
-    <mergeCell ref="T33:T38"/>
-    <mergeCell ref="U33:U38"/>
-    <mergeCell ref="V33:V38"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="X33:X38"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="W39:W44"/>
-    <mergeCell ref="X39:X44"/>
-    <mergeCell ref="S45:S50"/>
-    <mergeCell ref="T45:T50"/>
-    <mergeCell ref="U45:U50"/>
-    <mergeCell ref="V45:V50"/>
-    <mergeCell ref="U27:U32"/>
-    <mergeCell ref="V27:V32"/>
-    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="K45:K50"/>
+    <mergeCell ref="L45:L50"/>
+    <mergeCell ref="M45:M50"/>
+    <mergeCell ref="N45:N50"/>
+    <mergeCell ref="O45:O50"/>
+    <mergeCell ref="P45:P50"/>
+    <mergeCell ref="Q45:Q50"/>
+    <mergeCell ref="R45:R50"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="X27:X32"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="M27:M32"/>
+    <mergeCell ref="N27:N32"/>
+    <mergeCell ref="O27:O32"/>
+    <mergeCell ref="P27:P32"/>
+    <mergeCell ref="Q27:Q32"/>
+    <mergeCell ref="R27:R32"/>
+    <mergeCell ref="S27:S32"/>
+    <mergeCell ref="T27:T32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
